--- a/docs/orga/deroulement.xlsx
+++ b/docs/orga/deroulement.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$36:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$36:$E$54</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>HARRA Sanae</t>
   </si>
@@ -89,12 +89,6 @@
     <t>2h</t>
   </si>
   <si>
-    <t>Fork &amp; PR (A faire)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git_module_01/4 (ppt) </t>
-  </si>
-  <si>
     <t>Animateur</t>
   </si>
   <si>
@@ -107,21 +101,6 @@
     <t>1h</t>
   </si>
   <si>
-    <t>vsts_session_1 (code &amp; build)</t>
-  </si>
-  <si>
-    <t>tp_git_1 et tp_build_1</t>
-  </si>
-  <si>
-    <t>tp_release_1</t>
-  </si>
-  <si>
-    <t>Sessions</t>
-  </si>
-  <si>
-    <t>vsts_session_2 (release) (A faire)</t>
-  </si>
-  <si>
     <t>Session 1 du 02/01/18 au 03/01/18</t>
   </si>
   <si>
@@ -180,6 +159,60 @@
   </si>
   <si>
     <t>Finance RH</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Fork &amp; PR</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Presentation + TP</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>git_module_01/4.docx</t>
+  </si>
+  <si>
+    <t>tp_release_1.docx</t>
+  </si>
+  <si>
+    <t>Modules GIT</t>
+  </si>
+  <si>
+    <t>A renseigner</t>
+  </si>
+  <si>
+    <t>VSTS : Overview, Code et Build</t>
+  </si>
+  <si>
+    <t>TP GIT + TP BUILD</t>
+  </si>
+  <si>
+    <t>vsts_session_1.ppt</t>
+  </si>
+  <si>
+    <t>tp_git_1.docx, tp_build_1.docx</t>
+  </si>
+  <si>
+    <t>VSTS : Release</t>
+  </si>
+  <si>
+    <t>vsts_session_2.ppt</t>
+  </si>
+  <si>
+    <t>TP RELEASE</t>
   </si>
 </sst>
 </file>
@@ -210,14 +243,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -228,10 +253,16 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,30 +278,22 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -325,12 +348,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,53 +412,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,495 +772,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="4"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D17" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D18" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22"/>
       <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="D29" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
